--- a/READING_ANALYSIS.xlsx
+++ b/READING_ANALYSIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>TPO</t>
   </si>
@@ -22,6 +22,9 @@
     <t>READING</t>
   </si>
   <si>
+    <t>Question</t>
+  </si>
+  <si>
     <t>Detail Question</t>
   </si>
   <si>
@@ -34,16 +37,34 @@
     <t>Central Sentence Question</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
     <t>TPO1</t>
   </si>
   <si>
     <t>READING1</t>
   </si>
   <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
     <t>READING2</t>
   </si>
   <si>
     <t>READING3</t>
+  </si>
+  <si>
+    <t>READING4</t>
   </si>
   <si>
     <t>TPO2</t>
@@ -151,11 +172,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,18 +185,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,100 +215,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +315,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,19 +351,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,167 +525,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,17 +563,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,26 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -602,9 +619,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,156 +656,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,242 +1151,453 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="12.4375" customWidth="1"/>
-    <col min="4" max="4" width="12.53125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="2" max="3" width="13.1171875" customWidth="1"/>
+    <col min="5" max="5" width="9.03125" customWidth="1"/>
+    <col min="6" max="6" width="9.421875" customWidth="1"/>
+    <col min="7" max="7" width="8.359375" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" customWidth="1"/>
+    <col min="9" max="9" width="13.1171875" customWidth="1"/>
+    <col min="10" max="10" width="8.9375" customWidth="1"/>
+    <col min="11" max="11" width="12.828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>15</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="M4" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="5:11">
+      <c r="E9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:11">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="E11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:11">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="E12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="17" s="1" customFormat="1" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="21" s="1" customFormat="1" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="23" s="1" customFormat="1" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="25" s="1" customFormat="1" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="26" s="1" customFormat="1" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="27" s="1" customFormat="1" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="32" s="1" customFormat="1" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="33" s="1" customFormat="1" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="34" s="1" customFormat="1" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="36" s="1" customFormat="1" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="38" s="1" customFormat="1" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="18">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
